--- a/IBK/excel/BL_ret_BL_result_0722_06.xlsx
+++ b/IBK/excel/BL_ret_BL_result_0722_06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="739">
   <si>
     <t>file name</t>
   </si>
@@ -1616,9 +1616,6 @@
   </si>
   <si>
     <t>SEONG HEE 309</t>
-  </si>
-  <si>
-    <t>BL_003052191000420_304023_20190226_201902261233110a.jpg</t>
   </si>
   <si>
     <t>TO LECIEN CORPORATION,</t>
@@ -2212,13 +2209,38 @@
   <si>
     <t xml:space="preserve">CENTRAL EXPRESS INTL Co   LTD </t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BL_003052191000420_304023_20190226_201902261233110a.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PORT,</t>
+  </si>
+  <si>
+    <t>FREIGHT PREPAID,</t>
+  </si>
+  <si>
+    <t>SEE CONDITIONS OF CARRIAGE AND,</t>
+  </si>
+  <si>
+    <t>FEB.03.2019 AT HOCHIMINH. VIETNAM,</t>
+  </si>
+  <si>
+    <t>MEANS OF TRANSPORT, FROM TNE PLACE OF RECEIPT OR,</t>
+  </si>
+  <si>
+    <t>DISCHARGE AND TOR ARRANGEMENT OF PROCUREMENT OF PRE-CARRIAGE FROM PACE AT RECEIPT AND,</t>
+  </si>
+  <si>
+    <t>TNE NUMBER OT BILLS OT LADING INDICATED BELOW AN OT TNIS TENOR AND DATE,,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2245,6 +2267,13 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2288,7 +2317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2301,6 +2330,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2601,26 +2645,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I230"/>
+  <dimension ref="A1:J230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="D232" sqref="D232"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="J228" sqref="J228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="22.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="42.625" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="37.25" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="22.375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="29.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2645,9 +2689,12 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2672,8 +2719,11 @@
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="I2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2692,8 +2742,11 @@
       <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3">
         <v>17.5</v>
@@ -2716,11 +2769,14 @@
       <c r="H4" s="3">
         <v>100</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="7">
+        <v>100</v>
+      </c>
+      <c r="J4" s="3">
         <v>83.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -2745,8 +2801,11 @@
       <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -2771,8 +2830,11 @@
       <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>100</v>
@@ -2795,11 +2857,14 @@
       <c r="H7" s="3">
         <v>100</v>
       </c>
-      <c r="I7" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="I7" s="7">
+        <v>100</v>
+      </c>
+      <c r="J7" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -2824,8 +2889,11 @@
       <c r="H8" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -2847,8 +2915,11 @@
       <c r="H9" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>100</v>
@@ -2871,11 +2942,14 @@
       <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="I10" s="7">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -2900,8 +2974,11 @@
       <c r="H11" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="I11" s="6" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -2926,8 +3003,11 @@
       <c r="H12" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>100</v>
@@ -2950,11 +3030,14 @@
       <c r="H13" s="3">
         <v>100</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="7">
+        <v>14.3</v>
+      </c>
+      <c r="J13" s="3">
         <v>85.7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -2979,8 +3062,11 @@
       <c r="H14" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="I14" s="6" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -3005,8 +3091,11 @@
       <c r="H15" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3">
         <v>100</v>
@@ -3029,11 +3118,14 @@
       <c r="H16" s="3">
         <v>100</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J16" s="3">
         <v>85.7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
@@ -3058,8 +3150,11 @@
       <c r="H17" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I17" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -3084,8 +3179,11 @@
       <c r="H18" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3">
         <v>100</v>
@@ -3108,11 +3206,14 @@
       <c r="H19" s="3">
         <v>100</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="7">
+        <v>100</v>
+      </c>
+      <c r="J19" s="3">
         <v>99.1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -3137,8 +3238,11 @@
       <c r="H20" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="I20" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -3163,8 +3267,11 @@
       <c r="H21" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3">
         <v>100</v>
@@ -3187,11 +3294,14 @@
       <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="7">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>85.7</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="48" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
@@ -3216,8 +3326,11 @@
       <c r="H23" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="48" x14ac:dyDescent="0.3">
+      <c r="I23" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>78</v>
       </c>
@@ -3242,8 +3355,11 @@
       <c r="H24" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3">
         <v>100</v>
@@ -3266,11 +3382,14 @@
       <c r="H25" s="3">
         <v>100</v>
       </c>
-      <c r="I25" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="I25" s="7">
+        <v>100</v>
+      </c>
+      <c r="J25" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>89</v>
       </c>
@@ -3295,8 +3414,11 @@
       <c r="H26" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="I26" s="6" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>89</v>
       </c>
@@ -3321,8 +3443,11 @@
       <c r="H27" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I27" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3">
         <v>100</v>
@@ -3345,11 +3470,14 @@
       <c r="H28" s="3">
         <v>100</v>
       </c>
-      <c r="I28" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I28" s="7">
+        <v>14.3</v>
+      </c>
+      <c r="J28" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>101</v>
       </c>
@@ -3374,8 +3502,11 @@
       <c r="H29" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I29" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>101</v>
       </c>
@@ -3400,8 +3531,11 @@
       <c r="H30" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3">
         <v>100</v>
@@ -3424,11 +3558,14 @@
       <c r="H31" s="3">
         <v>15.4</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="7">
+        <v>100</v>
+      </c>
+      <c r="J31" s="3">
         <v>87.9</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>113</v>
       </c>
@@ -3453,8 +3590,11 @@
       <c r="H32" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I32" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>113</v>
       </c>
@@ -3479,8 +3619,11 @@
       <c r="H33" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3">
         <v>100</v>
@@ -3503,11 +3646,14 @@
       <c r="H34" s="3">
         <v>15.4</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="7">
+        <v>100</v>
+      </c>
+      <c r="J34" s="3">
         <v>87.9</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>116</v>
       </c>
@@ -3532,8 +3678,11 @@
       <c r="H35" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="48" x14ac:dyDescent="0.3">
+      <c r="I35" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>116</v>
       </c>
@@ -3558,8 +3707,11 @@
       <c r="H36" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3">
         <v>100</v>
@@ -3582,11 +3734,14 @@
       <c r="H37" s="3">
         <v>100</v>
       </c>
-      <c r="I37" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="48" x14ac:dyDescent="0.3">
+      <c r="I37" s="7">
+        <v>100</v>
+      </c>
+      <c r="J37" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>126</v>
       </c>
@@ -3608,8 +3763,11 @@
       <c r="H38" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="48" x14ac:dyDescent="0.3">
+      <c r="I38" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>126</v>
       </c>
@@ -3628,8 +3786,11 @@
       <c r="H39" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I39" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3">
         <v>0</v>
@@ -3652,11 +3813,14 @@
       <c r="H40" s="3">
         <v>100</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="7">
+        <v>100</v>
+      </c>
+      <c r="J40" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>136</v>
       </c>
@@ -3681,8 +3845,11 @@
       <c r="H41" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I41" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>136</v>
       </c>
@@ -3704,8 +3871,11 @@
       <c r="H42" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I42" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3">
         <v>100</v>
@@ -3728,11 +3898,14 @@
       <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="7">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>83.3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>144</v>
       </c>
@@ -3757,8 +3930,11 @@
       <c r="H44" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I44" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>144</v>
       </c>
@@ -3780,8 +3956,11 @@
       <c r="H45" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I45" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="3">
         <v>100</v>
@@ -3804,11 +3983,14 @@
       <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="7">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>83.8</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>151</v>
       </c>
@@ -3833,8 +4015,11 @@
       <c r="H47" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="48" x14ac:dyDescent="0.3">
+      <c r="I47" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>151</v>
       </c>
@@ -3859,8 +4044,11 @@
       <c r="H48" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I48" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="3">
         <v>15.7</v>
@@ -3883,11 +4071,14 @@
       <c r="H49" s="3">
         <v>100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="7">
+        <v>100</v>
+      </c>
+      <c r="J49" s="3">
         <v>73.7</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>162</v>
       </c>
@@ -3912,8 +4103,11 @@
       <c r="H50" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I50" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>162</v>
       </c>
@@ -3938,8 +4132,11 @@
       <c r="H51" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I51" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="3">
         <v>100</v>
@@ -3962,11 +4159,14 @@
       <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="48" x14ac:dyDescent="0.3">
+      <c r="I52" s="7">
+        <v>100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>171</v>
       </c>
@@ -3991,8 +4191,11 @@
       <c r="H53" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="48" x14ac:dyDescent="0.3">
+      <c r="I53" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>171</v>
       </c>
@@ -4011,8 +4214,9 @@
       <c r="G54" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3">
         <v>100</v>
@@ -4035,11 +4239,14 @@
       <c r="H55" s="3">
         <v>0</v>
       </c>
-      <c r="I55" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>180</v>
       </c>
@@ -4064,8 +4271,11 @@
       <c r="H56" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="I56" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>180</v>
       </c>
@@ -4087,8 +4297,11 @@
       <c r="H57" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I57" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3">
         <v>100</v>
@@ -4111,11 +4324,14 @@
       <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I58" s="7">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>184</v>
       </c>
@@ -4140,8 +4356,11 @@
       <c r="H59" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I59" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>184</v>
       </c>
@@ -4166,8 +4385,11 @@
       <c r="H60" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I60" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3">
         <v>100</v>
@@ -4190,11 +4412,14 @@
       <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="I61" s="7">
+        <v>100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>197</v>
       </c>
@@ -4216,8 +4441,11 @@
       <c r="H62" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I62" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>197</v>
       </c>
@@ -4242,8 +4470,11 @@
       <c r="H63" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I63" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3">
         <v>100</v>
@@ -4266,11 +4497,14 @@
       <c r="H64" s="3">
         <v>100</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I64" s="7">
+        <v>100</v>
+      </c>
+      <c r="J64" s="3">
         <v>85.7</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>206</v>
       </c>
@@ -4295,8 +4529,11 @@
       <c r="H65" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I65" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>206</v>
       </c>
@@ -4321,8 +4558,11 @@
       <c r="H66" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I66" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3">
         <v>100</v>
@@ -4345,11 +4585,14 @@
       <c r="H67" s="3">
         <v>100</v>
       </c>
-      <c r="I67" s="3">
+      <c r="I67" s="7">
+        <v>100</v>
+      </c>
+      <c r="J67" s="3">
         <v>81.8</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>215</v>
       </c>
@@ -4374,8 +4617,11 @@
       <c r="H68" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I68" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>215</v>
       </c>
@@ -4400,8 +4646,11 @@
       <c r="H69" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I69" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3">
         <v>100</v>
@@ -4424,11 +4673,14 @@
       <c r="H70" s="3">
         <v>100</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="7">
+        <v>100</v>
+      </c>
+      <c r="J70" s="3">
         <v>99.8</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>223</v>
       </c>
@@ -4453,8 +4705,11 @@
       <c r="H71" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I71" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>223</v>
       </c>
@@ -4476,8 +4731,9 @@
       <c r="G72" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I72" s="8"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3">
         <v>100</v>
@@ -4500,11 +4756,14 @@
       <c r="H73" s="3">
         <v>0</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I73" s="7">
+        <v>0</v>
+      </c>
+      <c r="J73" s="3">
         <v>85.7</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>230</v>
       </c>
@@ -4529,8 +4788,11 @@
       <c r="H74" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="48" x14ac:dyDescent="0.3">
+      <c r="I74" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>235</v>
       </c>
@@ -4552,8 +4814,9 @@
       <c r="G75" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I75" s="8"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3">
         <v>100</v>
@@ -4576,11 +4839,14 @@
       <c r="H76" s="3">
         <v>0</v>
       </c>
-      <c r="I76" s="3">
+      <c r="I76" s="7">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>242</v>
       </c>
@@ -4605,8 +4871,11 @@
       <c r="H77" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I77" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>249</v>
       </c>
@@ -4631,8 +4900,11 @@
       <c r="H78" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I78" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3">
         <v>100</v>
@@ -4655,11 +4927,14 @@
       <c r="H79" s="3">
         <v>100</v>
       </c>
-      <c r="I79" s="3">
+      <c r="I79" s="7">
+        <v>100</v>
+      </c>
+      <c r="J79" s="3">
         <v>75.400000000000006</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>255</v>
       </c>
@@ -4684,8 +4959,11 @@
       <c r="H80" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I80" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>261</v>
       </c>
@@ -4710,8 +4988,11 @@
       <c r="H81" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I81" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3">
         <v>100</v>
@@ -4734,11 +5015,14 @@
       <c r="H82" s="3">
         <v>100</v>
       </c>
-      <c r="I82" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I82" s="7">
+        <v>100</v>
+      </c>
+      <c r="J82" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>267</v>
       </c>
@@ -4763,8 +5047,11 @@
       <c r="H83" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I83" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>273</v>
       </c>
@@ -4786,8 +5073,11 @@
       <c r="H84" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I84" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3">
         <v>100</v>
@@ -4810,11 +5100,14 @@
       <c r="H85" s="3">
         <v>100</v>
       </c>
-      <c r="I85" s="3">
+      <c r="I85" s="7">
+        <v>100</v>
+      </c>
+      <c r="J85" s="3">
         <v>84.6</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>278</v>
       </c>
@@ -4839,8 +5132,11 @@
       <c r="H86" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I86" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>284</v>
       </c>
@@ -4865,8 +5161,11 @@
       <c r="H87" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I87" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3">
         <v>100</v>
@@ -4889,11 +5188,14 @@
       <c r="H88" s="3">
         <v>100</v>
       </c>
-      <c r="I88" s="3">
+      <c r="I88" s="7">
+        <v>100</v>
+      </c>
+      <c r="J88" s="3">
         <v>85.7</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>291</v>
       </c>
@@ -4901,7 +5203,7 @@
         <v>279</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>280</v>
@@ -4918,8 +5220,11 @@
       <c r="H89" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I89" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>293</v>
       </c>
@@ -4927,7 +5232,7 @@
         <v>285</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>287</v>
@@ -4944,8 +5249,11 @@
       <c r="H90" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I90" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3">
         <v>100</v>
@@ -4968,11 +5276,14 @@
       <c r="H91" s="3">
         <v>100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="7">
+        <v>100</v>
+      </c>
+      <c r="J91" s="3">
         <v>94.4</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>295</v>
       </c>
@@ -4997,8 +5308,11 @@
       <c r="H92" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I92" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>298</v>
       </c>
@@ -5023,8 +5337,11 @@
       <c r="H93" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I93" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3">
         <v>100</v>
@@ -5047,11 +5364,14 @@
       <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="7">
+        <v>100</v>
+      </c>
+      <c r="J94" s="3">
         <v>91.3</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>299</v>
       </c>
@@ -5076,8 +5396,11 @@
       <c r="H95" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I95" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>305</v>
       </c>
@@ -5102,8 +5425,11 @@
       <c r="H96" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I96" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="3">
         <v>100</v>
@@ -5126,11 +5452,14 @@
       <c r="H97" s="3">
         <v>100</v>
       </c>
-      <c r="I97" s="3">
+      <c r="I97" s="7">
+        <v>100</v>
+      </c>
+      <c r="J97" s="3">
         <v>85.7</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>312</v>
       </c>
@@ -5152,8 +5481,11 @@
       <c r="H98" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I98" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>315</v>
       </c>
@@ -5178,8 +5510,11 @@
       <c r="H99" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I99" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3">
         <v>0</v>
@@ -5202,11 +5537,14 @@
       <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="7">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>85.7</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>316</v>
       </c>
@@ -5231,8 +5569,11 @@
       <c r="H101" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="I101" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>324</v>
       </c>
@@ -5257,8 +5598,11 @@
       <c r="H102" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I102" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3">
         <v>100</v>
@@ -5281,11 +5625,14 @@
       <c r="H103" s="3">
         <v>100</v>
       </c>
-      <c r="I103" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I103" s="7">
+        <v>100</v>
+      </c>
+      <c r="J103" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>332</v>
       </c>
@@ -5310,8 +5657,11 @@
       <c r="H104" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I104" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>338</v>
       </c>
@@ -5336,8 +5686,11 @@
       <c r="H105" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I105" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3">
         <v>100</v>
@@ -5360,11 +5713,14 @@
       <c r="H106" s="3">
         <v>100</v>
       </c>
-      <c r="I106" s="3">
+      <c r="I106" s="7">
+        <v>100</v>
+      </c>
+      <c r="J106" s="3">
         <v>85.7</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>345</v>
       </c>
@@ -5389,8 +5745,11 @@
       <c r="H107" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I107" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>352</v>
       </c>
@@ -5415,8 +5774,11 @@
       <c r="H108" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I108" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3">
         <v>97.9</v>
@@ -5439,11 +5801,14 @@
       <c r="H109" s="3">
         <v>100</v>
       </c>
-      <c r="I109" s="3">
+      <c r="I109" s="7">
+        <v>100</v>
+      </c>
+      <c r="J109" s="3">
         <v>89.7</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="60" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="60" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>359</v>
       </c>
@@ -5468,8 +5833,11 @@
       <c r="H110" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" ht="60" x14ac:dyDescent="0.3">
+      <c r="I110" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="60" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>367</v>
       </c>
@@ -5494,8 +5862,11 @@
       <c r="H111" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I111" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3">
         <v>100</v>
@@ -5518,11 +5889,14 @@
       <c r="H112" s="3">
         <v>100</v>
       </c>
-      <c r="I112" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I112" s="7">
+        <v>100</v>
+      </c>
+      <c r="J112" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>374</v>
       </c>
@@ -5547,8 +5921,11 @@
       <c r="H113" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I113" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>380</v>
       </c>
@@ -5570,8 +5947,11 @@
       <c r="H114" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I114" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="3">
         <v>100</v>
@@ -5594,11 +5974,14 @@
       <c r="H115" s="3">
         <v>100</v>
       </c>
-      <c r="I115" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I115" s="7">
+        <v>100</v>
+      </c>
+      <c r="J115" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>386</v>
       </c>
@@ -5620,8 +6003,11 @@
       <c r="H116" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I116" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>391</v>
       </c>
@@ -5646,8 +6032,11 @@
       <c r="H117" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I117" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="3">
         <v>0</v>
@@ -5670,11 +6059,14 @@
       <c r="H118" s="3">
         <v>100</v>
       </c>
-      <c r="I118" s="3">
+      <c r="I118" s="7">
+        <v>100</v>
+      </c>
+      <c r="J118" s="3">
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>397</v>
       </c>
@@ -5699,8 +6091,11 @@
       <c r="H119" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I119" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>400</v>
       </c>
@@ -5725,8 +6120,11 @@
       <c r="H120" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I120" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="3">
         <v>100</v>
@@ -5749,11 +6147,14 @@
       <c r="H121" s="3">
         <v>100</v>
       </c>
-      <c r="I121" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I121" s="7">
+        <v>100</v>
+      </c>
+      <c r="J121" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>401</v>
       </c>
@@ -5778,8 +6179,11 @@
       <c r="H122" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I122" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>406</v>
       </c>
@@ -5804,8 +6208,11 @@
       <c r="H123" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I123" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3">
         <v>100</v>
@@ -5828,11 +6235,14 @@
       <c r="H124" s="3">
         <v>100</v>
       </c>
-      <c r="I124" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I124" s="7">
+        <v>100</v>
+      </c>
+      <c r="J124" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>412</v>
       </c>
@@ -5857,8 +6267,11 @@
       <c r="H125" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I125" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>416</v>
       </c>
@@ -5883,8 +6296,11 @@
       <c r="H126" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I126" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="3">
         <v>100</v>
@@ -5907,11 +6323,14 @@
       <c r="H127" s="3">
         <v>100</v>
       </c>
-      <c r="I127" s="3">
+      <c r="I127" s="7">
+        <v>100</v>
+      </c>
+      <c r="J127" s="3">
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>422</v>
       </c>
@@ -5936,8 +6355,11 @@
       <c r="H128" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I128" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>429</v>
       </c>
@@ -5962,8 +6384,11 @@
       <c r="H129" s="1" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I129" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="3">
         <v>100</v>
@@ -5986,11 +6411,14 @@
       <c r="H130" s="3">
         <v>100</v>
       </c>
-      <c r="I130" s="3">
+      <c r="I130" s="7">
+        <v>100</v>
+      </c>
+      <c r="J130" s="3">
         <v>85.7</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="48" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>437</v>
       </c>
@@ -6015,8 +6443,11 @@
       <c r="H131" s="1" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" ht="48" x14ac:dyDescent="0.3">
+      <c r="I131" s="6" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>444</v>
       </c>
@@ -6038,8 +6469,11 @@
       <c r="H132" s="1" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I132" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="3">
         <v>100</v>
@@ -6062,11 +6496,14 @@
       <c r="H133" s="3">
         <v>100</v>
       </c>
-      <c r="I133" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I133" s="7">
+        <v>30.8</v>
+      </c>
+      <c r="J133" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>447</v>
       </c>
@@ -6091,8 +6528,11 @@
       <c r="H134" s="1" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I134" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>454</v>
       </c>
@@ -6117,8 +6557,11 @@
       <c r="H135" s="1" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I135" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3">
         <v>100</v>
@@ -6141,11 +6584,14 @@
       <c r="H136" s="3">
         <v>100</v>
       </c>
-      <c r="I136" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="48" x14ac:dyDescent="0.3">
+      <c r="I136" s="7">
+        <v>100</v>
+      </c>
+      <c r="J136" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>455</v>
       </c>
@@ -6170,8 +6616,11 @@
       <c r="H137" s="1" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" ht="48" x14ac:dyDescent="0.3">
+      <c r="I137" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>460</v>
       </c>
@@ -6196,8 +6645,11 @@
       <c r="H138" s="1" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I138" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3">
         <v>100</v>
@@ -6220,11 +6672,14 @@
       <c r="H139" s="3">
         <v>100</v>
       </c>
-      <c r="I139" s="3">
+      <c r="I139" s="7">
+        <v>100</v>
+      </c>
+      <c r="J139" s="3">
         <v>85.7</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>462</v>
       </c>
@@ -6249,8 +6704,11 @@
       <c r="H140" s="1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I140" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>467</v>
       </c>
@@ -6275,8 +6733,11 @@
       <c r="H141" s="1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I141" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="3">
         <v>100</v>
@@ -6299,11 +6760,14 @@
       <c r="H142" s="3">
         <v>100</v>
       </c>
-      <c r="I142" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I142" s="7">
+        <v>100</v>
+      </c>
+      <c r="J142" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>468</v>
       </c>
@@ -6328,8 +6792,11 @@
       <c r="H143" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I143" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>472</v>
       </c>
@@ -6354,8 +6821,11 @@
       <c r="H144" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I144" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="3">
         <v>100</v>
@@ -6378,11 +6848,14 @@
       <c r="H145" s="3">
         <v>100</v>
       </c>
-      <c r="I145" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I145" s="7">
+        <v>100</v>
+      </c>
+      <c r="J145" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>473</v>
       </c>
@@ -6407,8 +6880,11 @@
       <c r="H146" s="1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I146" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>476</v>
       </c>
@@ -6433,8 +6909,11 @@
       <c r="H147" s="1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I147" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="3">
         <v>100</v>
@@ -6457,11 +6936,14 @@
       <c r="H148" s="3">
         <v>100</v>
       </c>
-      <c r="I148" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I148" s="7">
+        <v>100</v>
+      </c>
+      <c r="J148" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>477</v>
       </c>
@@ -6486,8 +6968,11 @@
       <c r="H149" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I149" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>480</v>
       </c>
@@ -6512,8 +6997,11 @@
       <c r="H150" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I150" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="3">
         <v>100</v>
@@ -6536,11 +7024,14 @@
       <c r="H151" s="3">
         <v>100</v>
       </c>
-      <c r="I151" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I151" s="7">
+        <v>100</v>
+      </c>
+      <c r="J151" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>481</v>
       </c>
@@ -6565,8 +7056,11 @@
       <c r="H152" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I152" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>485</v>
       </c>
@@ -6591,8 +7085,11 @@
       <c r="H153" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I153" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="3">
         <v>100</v>
@@ -6615,11 +7112,14 @@
       <c r="H154" s="3">
         <v>100</v>
       </c>
-      <c r="I154" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I154" s="7">
+        <v>100</v>
+      </c>
+      <c r="J154" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>486</v>
       </c>
@@ -6644,8 +7144,11 @@
       <c r="H155" s="1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I155" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>489</v>
       </c>
@@ -6670,8 +7173,11 @@
       <c r="H156" s="1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I156" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="3">
         <v>100</v>
@@ -6694,11 +7200,14 @@
       <c r="H157" s="3">
         <v>100</v>
       </c>
-      <c r="I157" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I157" s="7">
+        <v>100</v>
+      </c>
+      <c r="J157" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>490</v>
       </c>
@@ -6723,8 +7232,11 @@
       <c r="H158" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I158" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>491</v>
       </c>
@@ -6749,8 +7261,11 @@
       <c r="H159" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I159" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="3">
         <v>100</v>
@@ -6773,11 +7288,14 @@
       <c r="H160" s="3">
         <v>100</v>
       </c>
-      <c r="I160" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I160" s="7">
+        <v>100</v>
+      </c>
+      <c r="J160" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>492</v>
       </c>
@@ -6802,8 +7320,11 @@
       <c r="H161" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I161" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>493</v>
       </c>
@@ -6828,8 +7349,11 @@
       <c r="H162" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I162" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="3">
         <v>100</v>
@@ -6852,11 +7376,14 @@
       <c r="H163" s="3">
         <v>100</v>
       </c>
-      <c r="I163" s="3">
+      <c r="I163" s="7">
+        <v>100</v>
+      </c>
+      <c r="J163" s="3">
         <v>85.7</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>494</v>
       </c>
@@ -6881,8 +7408,11 @@
       <c r="H164" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I164" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>495</v>
       </c>
@@ -6907,8 +7437,11 @@
       <c r="H165" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I165" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="3">
         <v>100</v>
@@ -6931,11 +7464,14 @@
       <c r="H166" s="3">
         <v>100</v>
       </c>
-      <c r="I166" s="3">
+      <c r="I166" s="7">
+        <v>100</v>
+      </c>
+      <c r="J166" s="3">
         <v>91.3</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>497</v>
       </c>
@@ -6960,8 +7496,11 @@
       <c r="H167" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="I167" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>498</v>
       </c>
@@ -6986,8 +7525,11 @@
       <c r="H168" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I168" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="3">
         <v>100</v>
@@ -7010,11 +7552,14 @@
       <c r="H169" s="3">
         <v>100</v>
       </c>
-      <c r="I169" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I169" s="7">
+        <v>100</v>
+      </c>
+      <c r="J169" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>500</v>
       </c>
@@ -7039,8 +7584,11 @@
       <c r="H170" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I170" s="6" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>504</v>
       </c>
@@ -7065,8 +7613,11 @@
       <c r="H171" s="1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I171" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="3">
         <v>100</v>
@@ -7089,11 +7640,14 @@
       <c r="H172" s="3">
         <v>100</v>
       </c>
-      <c r="I172" s="3">
+      <c r="I172" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="J172" s="3">
         <v>85.7</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>510</v>
       </c>
@@ -7118,8 +7672,11 @@
       <c r="H173" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I173" s="6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>517</v>
       </c>
@@ -7144,8 +7701,11 @@
       <c r="H174" s="1" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I174" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3">
         <v>47.1</v>
@@ -7168,11 +7728,14 @@
       <c r="H175" s="3">
         <v>100</v>
       </c>
-      <c r="I175" s="3">
+      <c r="I175" s="7">
+        <v>100</v>
+      </c>
+      <c r="J175" s="3">
         <v>92.4</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>524</v>
       </c>
@@ -7197,8 +7760,11 @@
       <c r="H176" s="1" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I176" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>529</v>
       </c>
@@ -7223,8 +7789,11 @@
       <c r="H177" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I177" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3">
         <v>54.5</v>
@@ -7247,22 +7816,25 @@
       <c r="H178" s="3">
         <v>100</v>
       </c>
-      <c r="I178" s="3">
+      <c r="I178" s="7">
+        <v>100</v>
+      </c>
+      <c r="J178" s="3">
         <v>93.5</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>49</v>
@@ -7274,21 +7846,24 @@
         <v>282</v>
       </c>
       <c r="H179" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I179" s="6" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
+      <c r="B180" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>506</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>507</v>
@@ -7300,10 +7875,13 @@
         <v>289</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+      <c r="I180" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="3">
         <v>100</v>
@@ -7326,25 +7904,28 @@
       <c r="H181" s="3">
         <v>100</v>
       </c>
-      <c r="I181" s="3">
+      <c r="I181" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="J181" s="3">
         <v>85.7</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>33</v>
@@ -7353,36 +7934,42 @@
         <v>10</v>
       </c>
       <c r="H182" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I182" s="6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="C183" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="E183" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="F183" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="F183" s="1" t="s">
+      <c r="G183" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G183" s="1" t="s">
+      <c r="H183" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="H183" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I183" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="3">
         <v>100</v>
@@ -7405,16 +7992,19 @@
       <c r="H184" s="3">
         <v>100</v>
       </c>
-      <c r="I184" s="3">
+      <c r="I184" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="J184" s="3">
         <v>79.7</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>10</v>
@@ -7423,7 +8013,7 @@
         <v>11</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>167</v>
@@ -7432,24 +8022,27 @@
         <v>365</v>
       </c>
       <c r="H185" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I185" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>240</v>
@@ -7458,10 +8051,13 @@
         <v>372</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+      <c r="I186" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="3">
         <v>100</v>
@@ -7484,25 +8080,28 @@
       <c r="H187" s="3">
         <v>100</v>
       </c>
-      <c r="I187" s="3">
+      <c r="I187" s="7">
+        <v>100</v>
+      </c>
+      <c r="J187" s="3">
         <v>85.7</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C188" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="E188" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>10</v>
@@ -7511,36 +8110,42 @@
         <v>322</v>
       </c>
       <c r="H188" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="I188" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
         <v>568</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C189" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="E189" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="F189" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>573</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>330</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+      <c r="I189" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="3">
         <v>100</v>
@@ -7563,63 +8168,72 @@
       <c r="H190" s="3">
         <v>100</v>
       </c>
-      <c r="I190" s="3">
+      <c r="I190" s="7">
+        <v>100</v>
+      </c>
+      <c r="J190" s="3">
         <v>85.7</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="C191" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="E191" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="F191" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="F191" s="1" t="s">
+      <c r="G191" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G191" s="1" t="s">
+      <c r="H191" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="H191" s="1" t="s">
+      <c r="I191" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="F192" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="F192" s="1" t="s">
+      <c r="G192" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="G192" s="1" t="s">
+      <c r="H192" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="H192" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I192" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="3">
         <v>100</v>
@@ -7642,63 +8256,72 @@
       <c r="H193" s="3">
         <v>100</v>
       </c>
-      <c r="I193" s="3">
+      <c r="I193" s="7">
+        <v>100</v>
+      </c>
+      <c r="J193" s="3">
         <v>97.3</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D194" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="E194" s="1" t="s">
+      <c r="F194" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="F194" s="1" t="s">
+      <c r="G194" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="G194" s="1" t="s">
+      <c r="H194" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="H194" s="1" t="s">
+      <c r="I194" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>599</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>408</v>
       </c>
       <c r="D195" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E195" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="E195" s="1" t="s">
+      <c r="F195" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>602</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>357</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+      <c r="I195" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="3">
         <v>100</v>
@@ -7721,63 +8344,72 @@
       <c r="H196" s="3">
         <v>100</v>
       </c>
-      <c r="I196" s="3">
+      <c r="I196" s="7">
+        <v>100</v>
+      </c>
+      <c r="J196" s="3">
         <v>85.7</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="60" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" ht="60" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>605</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>164</v>
       </c>
       <c r="D197" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="E197" s="1" t="s">
-        <v>607</v>
-      </c>
       <c r="F197" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>399</v>
       </c>
       <c r="H197" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="I197" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="60" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" ht="60" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>610</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>408</v>
       </c>
       <c r="D198" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E198" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="E198" s="1" t="s">
+      <c r="F198" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G198" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="F198" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G198" s="1" t="s">
+      <c r="H198" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="H198" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I198" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="3">
         <v>100</v>
@@ -7800,63 +8432,72 @@
       <c r="H199" s="3">
         <v>100</v>
       </c>
-      <c r="I199" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I199" s="7">
+        <v>100</v>
+      </c>
+      <c r="J199" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>616</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D200" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E200" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>618</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>167</v>
       </c>
       <c r="G200" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="I200" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="H200" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="E201" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+      <c r="I201" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
       <c r="B202" s="3">
         <v>93.4</v>
@@ -7879,60 +8520,69 @@
       <c r="H202" s="3">
         <v>100</v>
       </c>
-      <c r="I202" s="3">
+      <c r="I202" s="7">
+        <v>100</v>
+      </c>
+      <c r="J202" s="3">
         <v>84.8</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>627</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D203" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E203" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="E203" s="1" t="s">
+      <c r="F203" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="F203" s="1" t="s">
+      <c r="G203" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="I203" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="G203" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="H203" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="E204" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="E204" s="1" t="s">
+      <c r="F204" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="F204" s="1" t="s">
-        <v>635</v>
-      </c>
       <c r="G204" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H204" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="H204" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I204" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
       <c r="B205" s="3">
         <v>100</v>
@@ -7955,60 +8605,69 @@
       <c r="H205" s="3">
         <v>100</v>
       </c>
-      <c r="I205" s="3">
+      <c r="I205" s="7">
+        <v>100</v>
+      </c>
+      <c r="J205" s="3">
         <v>95.3</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>637</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D206" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E206" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="E206" s="1" t="s">
+      <c r="F206" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="F206" s="1" t="s">
+      <c r="G206" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="G206" s="1" t="s">
+      <c r="H206" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="H206" s="1" t="s">
+      <c r="I206" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
+      <c r="B207" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="D207" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E207" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="E207" s="1" t="s">
+      <c r="F207" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="F207" s="1" t="s">
+      <c r="G207" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="G207" s="1" t="s">
+      <c r="H207" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="H207" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I207" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="3"/>
       <c r="B208" s="3">
         <v>100</v>
@@ -8031,60 +8690,69 @@
       <c r="H208" s="3">
         <v>100</v>
       </c>
-      <c r="I208" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+      <c r="I208" s="7">
+        <v>100</v>
+      </c>
+      <c r="J208" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D209" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E209" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="E209" s="1" t="s">
+      <c r="F209" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>652</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H209" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="I209" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="D210" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="E210" s="1" t="s">
+      <c r="F210" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="F210" s="1" t="s">
+      <c r="G210" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="G210" s="1" t="s">
+      <c r="H210" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="H210" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I210" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="B211" s="3">
         <v>100</v>
@@ -8107,60 +8775,69 @@
       <c r="H211" s="3">
         <v>100</v>
       </c>
-      <c r="I211" s="3">
+      <c r="I211" s="7">
+        <v>100</v>
+      </c>
+      <c r="J211" s="3">
         <v>83.3</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>661</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D212" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="F212" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>663</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H212" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="I212" s="6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>667</v>
-      </c>
       <c r="E213" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F213" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="F213" s="1" t="s">
+      <c r="G213" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="G213" s="1" t="s">
+      <c r="H213" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="H213" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I213" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
       <c r="B214" s="3">
         <v>100</v>
@@ -8183,63 +8860,72 @@
       <c r="H214" s="3">
         <v>100</v>
       </c>
-      <c r="I214" s="3">
+      <c r="I214" s="7">
+        <v>100</v>
+      </c>
+      <c r="J214" s="3">
         <v>69.099999999999994</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="C215" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="D215" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="E215" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="E215" s="1" t="s">
+      <c r="F215" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>365</v>
       </c>
       <c r="H215" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="I215" s="6" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="D216" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="E216" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="E216" s="1" t="s">
+      <c r="F216" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>680</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>372</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+      <c r="I216" s="6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="3"/>
       <c r="B217" s="3">
         <v>100</v>
@@ -8262,63 +8948,72 @@
       <c r="H217" s="3">
         <v>100</v>
       </c>
-      <c r="I217" s="3">
+      <c r="I217" s="7">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="J217" s="3">
         <v>99.8</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>683</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>257</v>
       </c>
       <c r="D218" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="E218" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>685</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G218" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="H218" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="H218" s="1" t="s">
+      <c r="I218" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="C219" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D219" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C219" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="D219" s="1" t="s">
+      <c r="E219" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>691</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>310</v>
       </c>
       <c r="G219" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="H219" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="H219" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I219" s="6" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="3"/>
       <c r="B220" s="3">
         <v>100</v>
@@ -8341,60 +9036,69 @@
       <c r="H220" s="3">
         <v>100</v>
       </c>
-      <c r="I220" s="3">
+      <c r="I220" s="7">
+        <v>100</v>
+      </c>
+      <c r="J220" s="3">
         <v>88.8</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>695</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D221" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E221" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="E221" s="1" t="s">
+      <c r="F221" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>698</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>399</v>
       </c>
       <c r="H221" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I221" s="6" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
+      <c r="B222" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="D222" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="E222" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="E222" s="1" t="s">
+      <c r="F222" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="F222" s="1" t="s">
+      <c r="G222" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="H222" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="G222" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="H222" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I222" s="6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="3"/>
       <c r="B223" s="3">
         <v>100</v>
@@ -8417,16 +9121,19 @@
       <c r="H223" s="3">
         <v>100</v>
       </c>
-      <c r="I223" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" ht="48" x14ac:dyDescent="0.3">
+      <c r="I223" s="7">
+        <v>100</v>
+      </c>
+      <c r="J223" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>707</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>10</v>
@@ -8435,42 +9142,48 @@
         <v>11</v>
       </c>
       <c r="E224" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="F224" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="F224" s="1" t="s">
+      <c r="G224" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="H224" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="H224" s="1" t="s">
+      <c r="I224" s="6" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
+      <c r="B225" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" s="1" t="s">
         <v>713</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>714</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F225" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="G225" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="G225" s="1" t="s">
+      <c r="H225" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="H225" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I225" s="6" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="3"/>
       <c r="B226" s="3">
         <v>98.8</v>
@@ -8493,57 +9206,66 @@
       <c r="H226" s="3">
         <v>100</v>
       </c>
-      <c r="I226" s="3">
+      <c r="I226" s="7">
+        <v>13.9</v>
+      </c>
+      <c r="J226" s="3">
         <v>83.1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="36" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>719</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D227" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="E227" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="E227" s="1" t="s">
+      <c r="F227" s="1" t="s">
         <v>721</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>722</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H227" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="I227" s="6" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" ht="36" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
+      <c r="B228" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="E228" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="E228" s="1" t="s">
+      <c r="F228" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="F228" s="1" t="s">
+      <c r="H228" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="H228" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I228" s="6" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="3"/>
       <c r="B229" s="3">
         <v>100</v>
@@ -8566,11 +9288,14 @@
       <c r="H229" s="3">
         <v>100</v>
       </c>
-      <c r="I229" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I229" s="7">
+        <v>10.3</v>
+      </c>
+      <c r="J229" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="4"/>
       <c r="B230" s="4">
         <v>92.4</v>
@@ -8593,12 +9318,16 @@
       <c r="H230" s="4">
         <v>93.8</v>
       </c>
-      <c r="I230" s="4">
+      <c r="I230" s="9">
+        <v>84.8</v>
+      </c>
+      <c r="J230" s="4">
         <v>91.2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>